--- a/mainadminhtml/img/reconcilation/uploadedby-Vinita_approver_userid-2.xlsx
+++ b/mainadminhtml/img/reconcilation/uploadedby-Vinita_approver_userid-2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC8A81-C5D5-4818-BB4E-97F7F0D8D857}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>HOLDING</t>
   </si>
@@ -26,13 +25,13 @@
     <t xml:space="preserve">SCRIPT NAME </t>
   </si>
   <si>
-    <t>Dr Reddy's Laboratories Ltd.</t>
+    <t>Dr Reddy's Laboratories Ltd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,23 +156,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -209,23 +191,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,11 +366,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +392,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4651561515</v>
+        <v>3213113113</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -438,24 +403,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1234455668</v>
+        <v>1333333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1234567845</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
